--- a/params.xlsx
+++ b/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\MATLAB\ProCiencia\Journal2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B9525-AEA4-48CA-847A-C0DAABF542A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13969E-3D4E-4709-BE5B-B68E53568AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -660,16 +660,16 @@
         <v>25</v>
       </c>
       <c r="H4" s="17">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="I4" s="17">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J4" s="17">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="17">
-        <v>2.2000000000000002</v>
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\MATLAB\ProCiencia\Journal2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13969E-3D4E-4709-BE5B-B68E53568AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE821EF-2EE6-40FE-9C57-0384FB7A59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -593,13 +593,13 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="I2" s="17">
-        <v>1.9350000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="J2" s="17">
         <v>0.27639999999999998</v>
       </c>
       <c r="K2" s="17">
-        <v>2.246</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\MATLAB\ProCiencia\Journal2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE821EF-2EE6-40FE-9C57-0384FB7A59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46754CF1-9334-4637-9DFA-6F192033F845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Biopsia 1</t>
   </si>
@@ -60,18 +60,6 @@
     <t>NODULO COLOIDE CON CAMBIOS QUISTICOS</t>
   </si>
   <si>
-    <t>NODULO HIPERPLASICO CON DEGENERACION QUISTICA</t>
-  </si>
-  <si>
-    <t>BOCIO MULTINODULAR. NODULO ADENOMATOSO CON INFILTRACION LINFOCITICA</t>
-  </si>
-  <si>
-    <t>BOCIO NODULAR. NODULO ADENOMATOSO</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
@@ -81,12 +69,6 @@
     <t>07</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -103,9 +85,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>clase</t>
@@ -276,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,12 +268,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -514,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A37E7-7016-47B5-8CA9-AE1F61892DCC}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -534,13 +510,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -552,27 +528,27 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>134135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -586,28 +562,28 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="14">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="14">
         <v>2.5</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>0.27639999999999998</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>199031</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -621,28 +597,28 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14">
         <v>0.40739999999999998</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>2.9289999999999998</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>0.91990000000000005</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="14">
         <v>2.8439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>254581</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -656,20 +632,55 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="14">
         <v>1.03</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>2.63</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>0.49</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>2.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>266844</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="I5">
+        <v>2.94</v>
+      </c>
+      <c r="J5">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="K5">
+        <v>2.4300999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -689,13 +700,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -707,27 +718,27 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>134135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -741,28 +752,28 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="14">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="14">
         <v>1.9350000000000001</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>0.27639999999999998</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="14">
         <v>2.246</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>199031</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -776,28 +787,28 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14">
         <v>0.40739999999999998</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>2.9289999999999998</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>0.91990000000000005</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="14">
         <v>2.8439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>254581</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -811,19 +822,19 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="14">
         <v>1.03</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>2.6309999999999998</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>0.49</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>2.181</v>
       </c>
     </row>
@@ -834,10 +845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A900BAA-6CAC-4DE6-B883-2CC0FE7E4E88}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -849,13 +860,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -867,218 +878,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>134135</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>189260</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>190029</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>199031</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>203704</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>254581</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>265002</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>266844</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
